--- a/medicine/Psychotrope/Servietsky/Servietsky.xlsx
+++ b/medicine/Psychotrope/Servietsky/Servietsky.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Servietsky (Towelie en version originale) est un personnage récurrent de la série télévisée South Park.
@@ -512,7 +524,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Servietsky est une serviette intelligente, produit de la cybernétique et élaborée par des extraterrestres, elle est assez intelligente pour battre un humain aux échecs et est capable de calculer votre degré d’humidité et de vous sécher en conséquence. Mais un beau jour, Servietsky découvrit les joints et se mit a divaguer, on le voit donc régulièrement en train de se « défoncer » en fumant des « bons gros joints » et il termine la plupart des conversations en disant "On s'fume un pétard ?". Le thème musical de Popeye est souvent utilisé quand il fume des joints. Servietsky semble d'ailleurs croire que le cannabis lui permet d'augmenter ses facultés intellectuelles. Il apparaît généralement pour mettre en garde les habitants de South Park en leur disant « N'oubliez pas d'emporter une serviette ! » et pour leur expliquer que : « Lorsqu'on sort de l'eau, il faut tout de suite se sécher pour éviter de prendre froid et c'est pour ça que Servietsky te dit : n'oublie pas d'emporter une serviette ! » il finit sa phrase par demander : « On s'fume un pétard ? ».
 Quand on lui reproche d'être une serviette, Servietsky répond toujours « C'est toi la serviette ! ».
@@ -545,7 +559,9 @@
           <t>Apparitions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La serviette apparaît pour la première fois dans l'épisode 8 de la saison 5 de South Park : Servietsky.
 Dans l'épisode Professeur Chaos de la saison suivante, Cartman, Kyle et Stan organisent un concours parmi les enfants pour trouver un remplaçant à Kenny, décédé. Servietsky atteint le stade final du concours, mais il n'est pas retenu, car « tout le temps défoncé ».
@@ -580,7 +596,9 @@
           <t>Inspiration</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le DVD South Park The Hits: Volume 1, Matt Stone et Trey Parker expliquent que l'idée du personnage de Servietsky est apparue durant des vacances passées près d'un lac avec des auteurs et amis. Au moment de prendre le bateau, l'un d'eux cria : « N'oublie pas de prendre une serviette ! ». Un autre s'en serait moqué en disant avec la voix de Servietsky : « Servietsky dit de ne pas oublier de prendre une serviette ! ».
 Selon le même DVD, le personnage est une réponse des créateurs à l'important merchandising autour des personnages de South Park. Servietsky est un personnage « physiquement et moralement plat » qui ne semble pas commercialement intéressant, d'où le faux spot publicitaire au milieu de l'épisode de la saison 5 de South Park Servietsky et la remarque de Cartman « T'es le personnage le plus nul jamais inventé ! ».
